--- a/resultFile_1.xlsx
+++ b/resultFile_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,22 +673,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sea otter</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hb 20</t>
+          <t>Hb 107</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>terrestrial, aquatic</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -697,33 +697,33 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-19.88</v>
+        <v>-20.35</v>
       </c>
       <c r="G6" t="n">
-        <v>13.81</v>
+        <v>7.87</v>
       </c>
       <c r="H6" t="n">
-        <v>-16.27</v>
+        <v>-12.89</v>
       </c>
       <c r="I6" t="n">
-        <v>-9.91</v>
+        <v>-8.59</v>
       </c>
       <c r="J6" t="n">
-        <v>14.92</v>
+        <v>17.36594285753255</v>
       </c>
       <c r="K6" t="n">
-        <v>15.05</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hb 107</t>
+          <t>Hb 66</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-20.35</v>
+        <v>-21.21</v>
       </c>
       <c r="G7" t="n">
-        <v>7.87</v>
+        <v>6.56</v>
       </c>
       <c r="H7" t="n">
-        <v>-12.89</v>
+        <v>-10.59</v>
       </c>
       <c r="I7" t="n">
-        <v>-8.59</v>
+        <v>-9.31</v>
       </c>
       <c r="J7" t="n">
-        <v>17.36594285753255</v>
+        <v>13.8324468562144</v>
       </c>
       <c r="K7" t="n">
-        <v>14.65</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="8">
@@ -768,7 +768,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hb 66</t>
+          <t>Hb 69</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -787,33 +787,33 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-21.21</v>
+        <v>-21.48</v>
       </c>
       <c r="G8" t="n">
-        <v>6.56</v>
+        <v>7.52</v>
       </c>
       <c r="H8" t="n">
-        <v>-10.59</v>
+        <v>-11.02</v>
       </c>
       <c r="I8" t="n">
-        <v>-9.31</v>
+        <v>-7.09</v>
       </c>
       <c r="J8" t="n">
-        <v>13.8324468562144</v>
+        <v>17.76201647299216</v>
       </c>
       <c r="K8" t="n">
-        <v>14.77</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hb 69</t>
+          <t>Hb 95</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -832,22 +832,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-21.48</v>
+        <v>-19.24</v>
       </c>
       <c r="G9" t="n">
-        <v>7.52</v>
+        <v>10.18</v>
       </c>
       <c r="H9" t="n">
-        <v>-11.02</v>
+        <v>-13.02</v>
       </c>
       <c r="I9" t="n">
-        <v>-7.09</v>
+        <v>-9.9</v>
       </c>
       <c r="J9" t="n">
-        <v>17.76201647299216</v>
+        <v>15.77558655762455</v>
       </c>
       <c r="K9" t="n">
-        <v>12.94</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="10">
@@ -858,7 +858,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hb 95</t>
+          <t>Hb 99</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -877,33 +877,33 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-19.24</v>
+        <v>-18.76</v>
       </c>
       <c r="G10" t="n">
-        <v>10.18</v>
+        <v>9.35</v>
       </c>
       <c r="H10" t="n">
-        <v>-13.02</v>
+        <v>-10.58</v>
       </c>
       <c r="I10" t="n">
-        <v>-9.9</v>
+        <v>-8.93</v>
       </c>
       <c r="J10" t="n">
-        <v>15.77558655762455</v>
+        <v>16.91366579493279</v>
       </c>
       <c r="K10" t="n">
-        <v>12.31</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hb 99</t>
+          <t>Hb 92</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -922,78 +922,78 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-18.76</v>
+        <v>-22.23</v>
       </c>
       <c r="G11" t="n">
-        <v>9.35</v>
+        <v>6.01</v>
       </c>
       <c r="H11" t="n">
-        <v>-10.58</v>
+        <v>-13.87</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.93</v>
+        <v>-8.01</v>
       </c>
       <c r="J11" t="n">
-        <v>16.91366579493279</v>
+        <v>15.7696344242481</v>
       </c>
       <c r="K11" t="n">
-        <v>16.23</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>roe deer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S 17</t>
+          <t>Hb 40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-14.51</v>
+        <v>-24</v>
       </c>
       <c r="G12" t="n">
-        <v>12.93</v>
+        <v>5.38</v>
       </c>
       <c r="H12" t="n">
-        <v>-9.76</v>
+        <v>-15.79</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.859999999999999</v>
+        <v>-10.06</v>
       </c>
       <c r="J12" t="n">
-        <v>16.87</v>
+        <v>16.56797920649685</v>
       </c>
       <c r="K12" t="n">
-        <v>11.77</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>roe deer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hb 92</t>
+          <t>Hb 41</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-22.23</v>
+        <v>-21.95</v>
       </c>
       <c r="G13" t="n">
-        <v>6.01</v>
+        <v>4.42</v>
       </c>
       <c r="H13" t="n">
-        <v>-13.87</v>
+        <v>-13.63</v>
       </c>
       <c r="I13" t="n">
-        <v>-8.01</v>
+        <v>-8.92</v>
       </c>
       <c r="J13" t="n">
-        <v>15.7696344242481</v>
+        <v>16.79103653590608</v>
       </c>
       <c r="K13" t="n">
-        <v>13.91</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="14">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hb 40</t>
+          <t>S 11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1053,37 +1053,37 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-24</v>
+        <v>-20.07</v>
       </c>
       <c r="G14" t="n">
-        <v>5.38</v>
+        <v>8.33</v>
       </c>
       <c r="H14" t="n">
-        <v>-15.79</v>
+        <v>-11.89</v>
       </c>
       <c r="I14" t="n">
-        <v>-10.06</v>
+        <v>-7.97</v>
       </c>
       <c r="J14" t="n">
-        <v>16.56797920649685</v>
+        <v>16.69306994872682</v>
       </c>
       <c r="K14" t="n">
-        <v>13.01</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>cattle</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hb 41</t>
+          <t>Hb 57</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1102,33 +1102,33 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-21.95</v>
+        <v>-21.67</v>
       </c>
       <c r="G15" t="n">
-        <v>4.42</v>
+        <v>5.53</v>
       </c>
       <c r="H15" t="n">
-        <v>-13.63</v>
+        <v>-10.67</v>
       </c>
       <c r="I15" t="n">
-        <v>-8.92</v>
+        <v>-6.43</v>
       </c>
       <c r="J15" t="n">
-        <v>16.79103653590608</v>
+        <v>18.13882992451508</v>
       </c>
       <c r="K15" t="n">
-        <v>12.56</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>red fox</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S 11</t>
+          <t>S 21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1147,33 +1147,33 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-20.07</v>
+        <v>-20.57</v>
       </c>
       <c r="G16" t="n">
-        <v>8.33</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>-11.89</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>-7.97</v>
+        <v>-4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>16.69306994872682</v>
+        <v>18.40001098864749</v>
       </c>
       <c r="K16" t="n">
-        <v>12.97</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cattle</t>
+          <t>red fox</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hb 57</t>
+          <t>S 22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1183,42 +1183,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-21.67</v>
+        <v>-20.43</v>
       </c>
       <c r="G17" t="n">
-        <v>5.53</v>
+        <v>11.21</v>
       </c>
       <c r="H17" t="n">
-        <v>-10.67</v>
+        <v>-12.35</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.43</v>
+        <v>-6.63</v>
       </c>
       <c r="J17" t="n">
-        <v>18.13882992451508</v>
+        <v>16.40765391274655</v>
       </c>
       <c r="K17" t="n">
-        <v>14.11</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>red fox</t>
+          <t>red deer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S 21</t>
+          <t>S 3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1237,33 +1237,33 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-20.57</v>
+        <v>-23.05</v>
       </c>
       <c r="G18" t="n">
-        <v>8.949999999999999</v>
+        <v>5.81</v>
       </c>
       <c r="H18" t="n">
-        <v>-9.779999999999999</v>
+        <v>-15.19</v>
       </c>
       <c r="I18" t="n">
-        <v>-4.8</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>18.40001098864749</v>
+        <v>16.53</v>
       </c>
       <c r="K18" t="n">
-        <v>13.16</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>red fox</t>
+          <t>red deer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S 22</t>
+          <t>S 5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1282,33 +1282,33 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-20.43</v>
+        <v>-22.69</v>
       </c>
       <c r="G19" t="n">
-        <v>11.21</v>
+        <v>5.51</v>
       </c>
       <c r="H19" t="n">
-        <v>-12.35</v>
+        <v>-14.65</v>
       </c>
       <c r="I19" t="n">
-        <v>-6.63</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>16.40765391274655</v>
+        <v>17.31749698144412</v>
       </c>
       <c r="K19" t="n">
-        <v>8.15</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>red deer</t>
+          <t>sheep</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S 3</t>
+          <t>Hb 74</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1323,37 +1323,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-23.05</v>
+        <v>-21.82</v>
       </c>
       <c r="G20" t="n">
-        <v>5.81</v>
+        <v>7.49</v>
       </c>
       <c r="H20" t="n">
-        <v>-15.19</v>
+        <v>-12.06</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.869999999999999</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>16.53</v>
+        <v>16.6752439378318</v>
       </c>
       <c r="K20" t="n">
-        <v>12.54</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>red deer</t>
+          <t>sheep</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S 5</t>
+          <t>Hb 79</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1368,47 +1368,47 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-22.69</v>
+        <v>-20.95</v>
       </c>
       <c r="G21" t="n">
-        <v>5.51</v>
+        <v>4.26</v>
       </c>
       <c r="H21" t="n">
-        <v>-14.65</v>
+        <v>-10.65</v>
       </c>
       <c r="I21" t="n">
-        <v>-8.140000000000001</v>
+        <v>-5.14</v>
       </c>
       <c r="J21" t="n">
-        <v>17.31749698144412</v>
+        <v>17.91967599365757</v>
       </c>
       <c r="K21" t="n">
-        <v>13.73</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>saddleback seal</t>
+          <t>wild boar</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hb 30</t>
+          <t>Hb 32</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1417,33 +1417,33 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-15.98</v>
+        <v>-20.86</v>
       </c>
       <c r="G22" t="n">
-        <v>11.21</v>
+        <v>5.8</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.35</v>
+        <v>-10.59</v>
       </c>
       <c r="I22" t="n">
-        <v>-7.54</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>15.04</v>
+        <v>16.29848695474572</v>
       </c>
       <c r="K22" t="n">
-        <v>21.15</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>wild boar</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hb 74</t>
+          <t>S 16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1453,165 +1453,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-21.82</v>
+        <v>-21.66</v>
       </c>
       <c r="G23" t="n">
-        <v>7.49</v>
+        <v>5.09</v>
       </c>
       <c r="H23" t="n">
-        <v>-12.06</v>
+        <v>-14.32</v>
       </c>
       <c r="I23" t="n">
-        <v>-8.890000000000001</v>
+        <v>-7.71</v>
       </c>
       <c r="J23" t="n">
-        <v>16.6752439378318</v>
+        <v>15.60046792141299</v>
       </c>
       <c r="K23" t="n">
-        <v>13.76</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>sheep</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hb 79</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>-20.95</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-10.65</v>
-      </c>
-      <c r="I24" t="n">
-        <v>-5.14</v>
-      </c>
-      <c r="J24" t="n">
-        <v>17.91967599365757</v>
-      </c>
-      <c r="K24" t="n">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>wild boar</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Hb 32</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>omnivorous</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>-20.86</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-10.59</v>
-      </c>
-      <c r="I25" t="n">
-        <v>-8.529999999999999</v>
-      </c>
-      <c r="J25" t="n">
-        <v>16.29848695474572</v>
-      </c>
-      <c r="K25" t="n">
-        <v>10.67</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>wild boar</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>S 16</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>omnivorous</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Schleswig</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>-21.66</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-14.32</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-7.71</v>
-      </c>
-      <c r="J26" t="n">
-        <v>15.60046792141299</v>
-      </c>
-      <c r="K26" t="n">
         <v>15.03</v>
       </c>
     </row>

--- a/resultFile_1.xlsx
+++ b/resultFile_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,36 +479,26 @@
           <t>δ18O carb</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>δ18O phos</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>δ34S coll</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>sea otter</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hb 2</t>
+          <t>Hb 19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>terrestrial, aquatic</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -517,43 +507,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-21.2</v>
+        <v>-19.17</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>11.21</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.8</v>
+        <v>-14.81</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.220000000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12.33</v>
+        <v>-9.460000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>sea otter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hb 3</t>
+          <t>Hb 20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>terrestrial, aquatic</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -562,178 +546,154 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-21.67</v>
+        <v>-19.88</v>
       </c>
       <c r="G3" t="n">
-        <v>4.54</v>
+        <v>13.81</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.76</v>
+        <v>-16.27</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.85</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17.26347527493763</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.95</v>
+        <v>-9.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>sea otter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S 24</t>
+          <t>32 FO1Hepi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>terrestrial, aquatic</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-22.38</v>
+        <v>-14.15</v>
       </c>
       <c r="G4" t="n">
-        <v>4.04</v>
+        <v>13.14</v>
       </c>
       <c r="H4" t="n">
-        <v>-11.3</v>
+        <v>-6.75</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.43</v>
-      </c>
-      <c r="J4" t="n">
-        <v>17.29076400866832</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10.77</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>sea otter</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S 28</t>
+          <t>33 FO2H</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>terrestrial, aquatic</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-23.4</v>
+        <v>-20.63</v>
       </c>
       <c r="G5" t="n">
-        <v>4.35</v>
+        <v>13.54</v>
       </c>
       <c r="H5" t="n">
-        <v>-15.14</v>
+        <v>-15.43</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.27</v>
-      </c>
-      <c r="J5" t="n">
-        <v>17.03179574578499</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9.970000000000001</v>
+        <v>-7.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hb 107</t>
+          <t>S 17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-20.35</v>
+        <v>-14.51</v>
       </c>
       <c r="G6" t="n">
-        <v>7.87</v>
+        <v>12.93</v>
       </c>
       <c r="H6" t="n">
-        <v>-12.89</v>
+        <v>-9.76</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>17.36594285753255</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14.65</v>
+        <v>-8.859999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hb 66</t>
+          <t>20 KR1Ph</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -742,43 +702,37 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-21.21</v>
+        <v>-15.09</v>
       </c>
       <c r="G7" t="n">
-        <v>6.56</v>
+        <v>15.06</v>
       </c>
       <c r="H7" t="n">
-        <v>-10.59</v>
+        <v>-11.57</v>
       </c>
       <c r="I7" t="n">
-        <v>-9.31</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13.8324468562144</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14.77</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hb 69</t>
+          <t>21 KR2T</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -787,43 +741,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-21.48</v>
+        <v>-16.24</v>
       </c>
       <c r="G8" t="n">
-        <v>7.52</v>
+        <v>12.8</v>
       </c>
       <c r="H8" t="n">
-        <v>-11.02</v>
+        <v>-11.98</v>
       </c>
       <c r="I8" t="n">
-        <v>-7.09</v>
-      </c>
-      <c r="J8" t="n">
-        <v>17.76201647299216</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12.94</v>
+        <v>-7.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hb 95</t>
+          <t>22 KR3S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -832,43 +780,37 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-19.24</v>
+        <v>-16.31</v>
       </c>
       <c r="G9" t="n">
-        <v>10.18</v>
+        <v>13.06</v>
       </c>
       <c r="H9" t="n">
-        <v>-13.02</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-9.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15.77558655762455</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12.31</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hb 99</t>
+          <t>23 KR4V</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -877,43 +819,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-18.76</v>
+        <v>-16.22</v>
       </c>
       <c r="G10" t="n">
-        <v>9.35</v>
+        <v>12.88</v>
       </c>
       <c r="H10" t="n">
-        <v>-10.58</v>
+        <v>-12.96</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16.91366579493279</v>
-      </c>
-      <c r="K10" t="n">
-        <v>16.23</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hb 92</t>
+          <t>24 KR5Mt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -922,133 +858,115 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-22.23</v>
+        <v>-15.06</v>
       </c>
       <c r="G11" t="n">
-        <v>6.01</v>
+        <v>13.48</v>
       </c>
       <c r="H11" t="n">
-        <v>-13.87</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.01</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15.7696344242481</v>
-      </c>
-      <c r="K11" t="n">
-        <v>13.91</v>
+        <v>-8.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hb 40</t>
+          <t>71 KR1BuTy</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-24</v>
+        <v>-15.61</v>
       </c>
       <c r="G12" t="n">
-        <v>5.38</v>
+        <v>12.87</v>
       </c>
       <c r="H12" t="n">
-        <v>-15.79</v>
+        <v>-9.16</v>
       </c>
       <c r="I12" t="n">
-        <v>-10.06</v>
-      </c>
-      <c r="J12" t="n">
-        <v>16.56797920649685</v>
-      </c>
-      <c r="K12" t="n">
-        <v>13.01</v>
+        <v>-11.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hb 41</t>
+          <t>72 KR2Sc</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-21.95</v>
+        <v>-15.41</v>
       </c>
       <c r="G13" t="n">
-        <v>4.42</v>
+        <v>12.89</v>
       </c>
       <c r="H13" t="n">
-        <v>-13.63</v>
+        <v>-12.03</v>
       </c>
       <c r="I13" t="n">
-        <v>-8.92</v>
-      </c>
-      <c r="J13" t="n">
-        <v>16.79103653590608</v>
-      </c>
-      <c r="K13" t="n">
-        <v>12.56</v>
+        <v>-10.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S 11</t>
+          <t>73 KR3Mt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1057,88 +975,76 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-20.07</v>
+        <v>-17.22</v>
       </c>
       <c r="G14" t="n">
-        <v>8.33</v>
+        <v>15.33</v>
       </c>
       <c r="H14" t="n">
-        <v>-11.89</v>
+        <v>-13.59</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.97</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16.69306994872682</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12.97</v>
+        <v>-11.93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cattle</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hb 57</t>
+          <t>74 KR4Fi</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-21.67</v>
+        <v>-15.37</v>
       </c>
       <c r="G15" t="n">
-        <v>5.53</v>
+        <v>12.42</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.67</v>
+        <v>-11.6</v>
       </c>
       <c r="I15" t="n">
-        <v>-6.43</v>
-      </c>
-      <c r="J15" t="n">
-        <v>18.13882992451508</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14.11</v>
+        <v>-9.93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>red fox</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S 21</t>
+          <t>75 KR5Mt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1147,178 +1053,154 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-20.57</v>
+        <v>-14.61</v>
       </c>
       <c r="G16" t="n">
-        <v>8.949999999999999</v>
+        <v>13.45</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.779999999999999</v>
+        <v>-10.61</v>
       </c>
       <c r="I16" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18.40001098864749</v>
-      </c>
-      <c r="K16" t="n">
-        <v>13.16</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>red fox</t>
+          <t>sperm whale</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S 22</t>
+          <t>Hb 50</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>Salzwasser</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>molluscivorous</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-20.43</v>
+        <v>-19.34</v>
       </c>
       <c r="G17" t="n">
-        <v>11.21</v>
+        <v>8.33</v>
       </c>
       <c r="H17" t="n">
-        <v>-12.35</v>
+        <v>-14.48</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.63</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16.40765391274655</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8.15</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>red deer</t>
+          <t>ringed seal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S 3</t>
+          <t>Hb 28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>Salzwasser</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-23.05</v>
+        <v>-12.54</v>
       </c>
       <c r="G18" t="n">
-        <v>5.81</v>
+        <v>15.24</v>
       </c>
       <c r="H18" t="n">
-        <v>-15.19</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-8.869999999999999</v>
-      </c>
-      <c r="J18" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K18" t="n">
-        <v>12.54</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>red deer</t>
+          <t>saddleback seal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S 5</t>
+          <t>Hb 30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-22.69</v>
+        <v>-15.98</v>
       </c>
       <c r="G19" t="n">
-        <v>5.51</v>
+        <v>11.21</v>
       </c>
       <c r="H19" t="n">
-        <v>-14.65</v>
+        <v>-9.35</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.140000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>17.31749698144412</v>
-      </c>
-      <c r="K19" t="n">
-        <v>13.73</v>
+        <v>-7.54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>saddleback seal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hb 74</t>
+          <t>KHb 25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1327,43 +1209,37 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-21.82</v>
+        <v>-16.67</v>
       </c>
       <c r="G20" t="n">
-        <v>7.49</v>
+        <v>12.46</v>
       </c>
       <c r="H20" t="n">
-        <v>-12.06</v>
+        <v>-11.13</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.890000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>16.6752439378318</v>
-      </c>
-      <c r="K20" t="n">
-        <v>13.76</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>saddleback seal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hb 79</t>
+          <t>26 SR2Fi</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1372,43 +1248,37 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-20.95</v>
+        <v>-16.65</v>
       </c>
       <c r="G21" t="n">
-        <v>4.26</v>
+        <v>12.23</v>
       </c>
       <c r="H21" t="n">
-        <v>-10.65</v>
+        <v>-8.4</v>
       </c>
       <c r="I21" t="n">
-        <v>-5.14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>17.91967599365757</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12.2</v>
+        <v>-12.81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>wild boar</t>
+          <t>common seal</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hb 32</t>
+          <t>Hb 23</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1417,67 +1287,406 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-20.86</v>
+        <v>-20.7</v>
       </c>
       <c r="G22" t="n">
-        <v>5.8</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>-10.59</v>
+        <v>-11.22</v>
       </c>
       <c r="I22" t="n">
-        <v>-8.529999999999999</v>
-      </c>
-      <c r="J22" t="n">
-        <v>16.29848695474572</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10.67</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>wild boar</t>
+          <t>common seal</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S 16</t>
+          <t>Hb 24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-13.71</v>
+      </c>
+      <c r="G23" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-7.67</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-8.91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hb 25</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-16.96</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-9.119999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hb 26</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-15.98</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-6.23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-10.18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hb 27</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-13.41</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-9.710000000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-8.970000000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KHb 30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-17.01</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-9.49</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-9.619999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>KHb 31</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-9.57</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-13.51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>27 SH1Ph</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-14.78</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-6.63</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>28 SH2R</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-14.94</v>
+      </c>
+      <c r="G30" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-6.77</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>29 SH3V</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-5.74</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>walrus</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KS 76</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>molluscivorous</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Schleswig</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>-21.66</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-14.32</v>
-      </c>
-      <c r="I23" t="n">
-        <v>-7.71</v>
-      </c>
-      <c r="J23" t="n">
-        <v>15.60046792141299</v>
-      </c>
-      <c r="K23" t="n">
-        <v>15.03</v>
+      <c r="F32" t="n">
+        <v>-14</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-6.33</v>
       </c>
     </row>
   </sheetData>

--- a/resultFile_1.xlsx
+++ b/resultFile_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,26 +479,31 @@
           <t>δ18O carb</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>δ18O phos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sea otter</t>
+          <t>aurochs</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hb 19</t>
+          <t>Hb 47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>terrestrial, aquatic</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -507,37 +512,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-19.17</v>
+        <v>-20.51</v>
       </c>
       <c r="G2" t="n">
-        <v>11.21</v>
+        <v>10.48</v>
       </c>
       <c r="H2" t="n">
-        <v>-14.81</v>
+        <v>-10.94</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.460000000000001</v>
+        <v>-7.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sea otter</t>
+          <t>aurochs</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hb 20</t>
+          <t>Hb 48</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>terrestrial, aquatic</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -546,76 +554,82 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-19.88</v>
+        <v>-21.82</v>
       </c>
       <c r="G3" t="n">
-        <v>13.81</v>
+        <v>4.03</v>
       </c>
       <c r="H3" t="n">
-        <v>-16.27</v>
+        <v>-12.16</v>
       </c>
       <c r="I3" t="n">
-        <v>-9.91</v>
+        <v>-8.949999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>17.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sea otter</t>
+          <t>fallow deer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>32 FO1Hepi</t>
+          <t>S 6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>terrestrial, aquatic</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-14.15</v>
+        <v>-22.82</v>
       </c>
       <c r="G4" t="n">
-        <v>13.14</v>
+        <v>9.43</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.75</v>
+        <v>-11.52</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.99</v>
+        <v>-9.359999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sea otter</t>
+          <t>squirrel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>33 FO2H</t>
+          <t>Hb 7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>terrestrial, aquatic</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,76 +638,82 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-20.63</v>
+        <v>-21.27</v>
       </c>
       <c r="G5" t="n">
-        <v>13.54</v>
+        <v>2.91</v>
       </c>
       <c r="H5" t="n">
-        <v>-15.43</v>
+        <v>-14.64</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.96</v>
+        <v>-8.029999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>moose</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S 17</t>
+          <t>Hb 46</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-14.51</v>
+        <v>-21.5</v>
       </c>
       <c r="G6" t="n">
-        <v>12.93</v>
+        <v>4.86</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.76</v>
+        <v>-11.36</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.859999999999999</v>
+        <v>-7.01</v>
+      </c>
+      <c r="J6" t="n">
+        <v>17.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>European hare</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20 KR1Ph</t>
+          <t>Hb 1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -702,37 +722,40 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-15.09</v>
+        <v>-22.54</v>
       </c>
       <c r="G7" t="n">
-        <v>15.06</v>
+        <v>6.17</v>
       </c>
       <c r="H7" t="n">
-        <v>-11.57</v>
+        <v>-12.45</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.8</v>
+        <v>-8.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>European hare</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21 KR2T</t>
+          <t>Hb 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -741,37 +764,40 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-16.24</v>
+        <v>-21.2</v>
       </c>
       <c r="G8" t="n">
-        <v>12.8</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>-11.98</v>
+        <v>-10.8</v>
       </c>
       <c r="I8" t="n">
-        <v>-7.97</v>
+        <v>-8.220000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>European hare</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22 KR3S</t>
+          <t>Hb 3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -780,37 +806,40 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-16.31</v>
+        <v>-21.67</v>
       </c>
       <c r="G9" t="n">
-        <v>13.06</v>
+        <v>4.54</v>
       </c>
       <c r="H9" t="n">
-        <v>-9.949999999999999</v>
+        <v>-9.76</v>
       </c>
       <c r="I9" t="n">
-        <v>-7.67</v>
+        <v>-6.85</v>
+      </c>
+      <c r="J9" t="n">
+        <v>17.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>European hare</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23 KR4V</t>
+          <t>Hb 5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -819,76 +848,82 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-16.22</v>
+        <v>-22.15</v>
       </c>
       <c r="G10" t="n">
-        <v>12.88</v>
+        <v>4.02</v>
       </c>
       <c r="H10" t="n">
-        <v>-12.96</v>
+        <v>-15.83</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.359999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16.47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>European hare</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24 KR5Mt</t>
+          <t>S 24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-15.06</v>
+        <v>-22.38</v>
       </c>
       <c r="G11" t="n">
-        <v>13.48</v>
+        <v>4.04</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.369999999999999</v>
+        <v>-11.3</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.52</v>
+        <v>-7.43</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>European hare</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>71 KR1BuTy</t>
+          <t>S 25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -897,37 +932,40 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-15.61</v>
+        <v>-22.78</v>
       </c>
       <c r="G12" t="n">
-        <v>12.87</v>
+        <v>5.32</v>
       </c>
       <c r="H12" t="n">
-        <v>-9.16</v>
+        <v>-13.12</v>
       </c>
       <c r="I12" t="n">
-        <v>-11.52</v>
+        <v>-10.04</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>European hare</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>72 KR2Sc</t>
+          <t>S 26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -936,37 +974,40 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-15.41</v>
+        <v>-22.39</v>
       </c>
       <c r="G13" t="n">
-        <v>12.89</v>
+        <v>3.96</v>
       </c>
       <c r="H13" t="n">
-        <v>-12.03</v>
+        <v>-13.59</v>
       </c>
       <c r="I13" t="n">
-        <v>-10.21</v>
+        <v>-9.27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>European hare</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>73 KR3Mt</t>
+          <t>S 27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -975,37 +1016,40 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-17.22</v>
+        <v>-22.45</v>
       </c>
       <c r="G14" t="n">
-        <v>15.33</v>
+        <v>3.89</v>
       </c>
       <c r="H14" t="n">
-        <v>-13.59</v>
+        <v>-14.84</v>
       </c>
       <c r="I14" t="n">
-        <v>-11.93</v>
+        <v>-7.82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>15.63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>European hare</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>74 KR4Fi</t>
+          <t>S 28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1014,32 +1058,35 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-15.37</v>
+        <v>-23.4</v>
       </c>
       <c r="G15" t="n">
-        <v>12.42</v>
+        <v>4.35</v>
       </c>
       <c r="H15" t="n">
-        <v>-11.6</v>
+        <v>-15.14</v>
       </c>
       <c r="I15" t="n">
-        <v>-9.93</v>
+        <v>-6.27</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>sea otter</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>75 KR5Mt</t>
+          <t>Hb 19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial, aquatic</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1049,41 +1096,44 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-14.61</v>
+        <v>-19.17</v>
       </c>
       <c r="G16" t="n">
-        <v>13.45</v>
+        <v>11.21</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.61</v>
+        <v>-14.81</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.15</v>
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>15.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sperm whale</t>
+          <t>sea otter</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hb 50</t>
+          <t>Hb 20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Salzwasser</t>
+          <t>terrestrial, aquatic</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>molluscivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1092,110 +1142,119 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-19.34</v>
+        <v>-19.88</v>
       </c>
       <c r="G17" t="n">
-        <v>8.33</v>
+        <v>13.81</v>
       </c>
       <c r="H17" t="n">
-        <v>-14.48</v>
+        <v>-16.27</v>
       </c>
       <c r="I17" t="n">
-        <v>-5.75</v>
+        <v>-9.91</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14.92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ringed seal</t>
+          <t>European rabbit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hb 28</t>
+          <t>S 29</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Salzwasser</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-12.54</v>
+        <v>-22.33</v>
       </c>
       <c r="G18" t="n">
-        <v>15.24</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.130000000000001</v>
+        <v>-11.77</v>
       </c>
       <c r="I18" t="n">
-        <v>-8.880000000000001</v>
+        <v>-6.95</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16.64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>saddleback seal</t>
+          <t>European rabbit</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hb 30</t>
+          <t>S 30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-15.98</v>
+        <v>-21.91</v>
       </c>
       <c r="G19" t="n">
-        <v>11.21</v>
+        <v>10.98</v>
       </c>
       <c r="H19" t="n">
-        <v>-9.35</v>
+        <v>-10.47</v>
       </c>
       <c r="I19" t="n">
-        <v>-7.54</v>
+        <v>-8.220000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>16.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>saddleback seal</t>
+          <t>grey seal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KHb 25</t>
+          <t>S 17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1205,41 +1264,44 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-16.67</v>
+        <v>-14.51</v>
       </c>
       <c r="G20" t="n">
-        <v>12.46</v>
+        <v>12.93</v>
       </c>
       <c r="H20" t="n">
-        <v>-11.13</v>
+        <v>-9.76</v>
       </c>
       <c r="I20" t="n">
-        <v>-7.99</v>
+        <v>-8.859999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>16.87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>saddleback seal</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26 SR2Fi</t>
+          <t>Hb 83</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1248,37 +1310,40 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-16.65</v>
+        <v>-22.15</v>
       </c>
       <c r="G21" t="n">
-        <v>12.23</v>
+        <v>5.73</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.4</v>
+        <v>-11</v>
       </c>
       <c r="I21" t="n">
-        <v>-12.81</v>
+        <v>-7.87</v>
+      </c>
+      <c r="J21" t="n">
+        <v>16.85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>common seal</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hb 23</t>
+          <t>Hb 84</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1287,37 +1352,40 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-20.7</v>
+        <v>-22.54</v>
       </c>
       <c r="G22" t="n">
-        <v>8.630000000000001</v>
+        <v>4.17</v>
       </c>
       <c r="H22" t="n">
-        <v>-11.22</v>
+        <v>-11.47</v>
       </c>
       <c r="I22" t="n">
-        <v>-8.73</v>
+        <v>-8.09</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>common seal</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hb 24</t>
+          <t>Hb 85</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1326,37 +1394,40 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-13.71</v>
+        <v>-21.83</v>
       </c>
       <c r="G23" t="n">
-        <v>13.08</v>
+        <v>6.74</v>
       </c>
       <c r="H23" t="n">
-        <v>-7.67</v>
+        <v>-11.84</v>
       </c>
       <c r="I23" t="n">
-        <v>-8.91</v>
+        <v>-8.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>common seal</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hb 25</t>
+          <t>Hb 86</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1365,37 +1436,40 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-16.96</v>
+        <v>-21.86</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>5.63</v>
       </c>
       <c r="H24" t="n">
-        <v>-10.8</v>
+        <v>-10.86</v>
       </c>
       <c r="I24" t="n">
-        <v>-9.119999999999999</v>
+        <v>-6.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17.41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>common seal</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hb 26</t>
+          <t>Hb 87</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1404,37 +1478,40 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-15.98</v>
+        <v>-22.14</v>
       </c>
       <c r="G25" t="n">
-        <v>13.18</v>
+        <v>4.95</v>
       </c>
       <c r="H25" t="n">
-        <v>-6.23</v>
+        <v>-12.11</v>
       </c>
       <c r="I25" t="n">
-        <v>-10.18</v>
+        <v>-9.210000000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>16.49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>common seal</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hb 27</t>
+          <t>Hb 88</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1443,37 +1520,40 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-13.41</v>
+        <v>-22.25</v>
       </c>
       <c r="G26" t="n">
-        <v>16.96</v>
+        <v>4.91</v>
       </c>
       <c r="H26" t="n">
-        <v>-9.710000000000001</v>
+        <v>-14.51</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.970000000000001</v>
+        <v>-8.029999999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>16.71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>common seal</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KHb 30</t>
+          <t>Hb 89</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1482,37 +1562,40 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-17.01</v>
+        <v>-22</v>
       </c>
       <c r="G27" t="n">
-        <v>11.99</v>
+        <v>4.98</v>
       </c>
       <c r="H27" t="n">
-        <v>-9.49</v>
+        <v>-13.17</v>
       </c>
       <c r="I27" t="n">
-        <v>-9.619999999999999</v>
+        <v>-7.18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>common seal</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KHb 31</t>
+          <t>Hb 90</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1521,37 +1604,40 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-13.5</v>
+        <v>-21.69</v>
       </c>
       <c r="G28" t="n">
-        <v>14.52</v>
+        <v>6.39</v>
       </c>
       <c r="H28" t="n">
-        <v>-9.57</v>
+        <v>-14.35</v>
       </c>
       <c r="I28" t="n">
-        <v>-13.51</v>
+        <v>-6.93</v>
+      </c>
+      <c r="J28" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>common seal</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>27 SH1Ph</t>
+          <t>Hb 91</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1560,37 +1646,40 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-14.78</v>
+        <v>-21.36</v>
       </c>
       <c r="G29" t="n">
-        <v>14.2</v>
+        <v>5.82</v>
       </c>
       <c r="H29" t="n">
-        <v>-10.4</v>
+        <v>-12.98</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.63</v>
+        <v>-7.23</v>
+      </c>
+      <c r="J29" t="n">
+        <v>18.53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>common seal</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28 SH2R</t>
+          <t>Hb 92</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1599,37 +1688,40 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-14.94</v>
+        <v>-22.23</v>
       </c>
       <c r="G30" t="n">
-        <v>15.29</v>
+        <v>6.01</v>
       </c>
       <c r="H30" t="n">
-        <v>-6.77</v>
+        <v>-13.87</v>
       </c>
       <c r="I30" t="n">
-        <v>-6.5</v>
+        <v>-8.01</v>
+      </c>
+      <c r="J30" t="n">
+        <v>15.77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>common seal</t>
+          <t>sperm whale</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>29 SH3V</t>
+          <t>Hb 50</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>Salzwasser</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>molluscivorous</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1638,55 +1730,1573 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-15</v>
+        <v>-19.34</v>
       </c>
       <c r="G31" t="n">
-        <v>11.96</v>
+        <v>8.33</v>
       </c>
       <c r="H31" t="n">
-        <v>-7.98</v>
+        <v>-14.48</v>
       </c>
       <c r="I31" t="n">
-        <v>-5.74</v>
+        <v>-5.75</v>
+      </c>
+      <c r="J31" t="n">
+        <v>19.59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>walrus</t>
+          <t>roe deer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KS 76</t>
+          <t>Hb 40</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-24</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-15.79</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="J32" t="n">
+        <v>16.57</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>roe deer</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hb 41</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-21.95</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-13.63</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-8.92</v>
+      </c>
+      <c r="J33" t="n">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>roe deer</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hb 42</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-22.67</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-15.01</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-8.31</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>roe deer</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hb 43</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>-22.41</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-7.51</v>
+      </c>
+      <c r="J35" t="n">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>roe deer</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>S 8</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>-21.94</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-14.55</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-9.48</v>
+      </c>
+      <c r="J36" t="n">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>roe deer</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>S 9</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>-21.73</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-13.33</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-9.630000000000001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>roe deer</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>S 11</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-20.07</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-11.89</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="J38" t="n">
+        <v>16.69</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>roe deer</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>S 12</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>-22.78</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-14.53</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>16.65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>cattle</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hb 53</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-21.46</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-7.14</v>
+      </c>
+      <c r="J40" t="n">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>cattle</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hb 54</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-21.62</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-10.62</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-6.84</v>
+      </c>
+      <c r="J41" t="n">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>cattle</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hb 55</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>-22.48</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-11.86</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-7.07</v>
+      </c>
+      <c r="J42" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>cattle</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hb 56</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>-21.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-10.51</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-7.15</v>
+      </c>
+      <c r="J43" t="n">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>cattle</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hb 57</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-21.67</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-10.67</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-6.43</v>
+      </c>
+      <c r="J44" t="n">
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>cattle</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Hb 58</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>-21.44</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-7.27</v>
+      </c>
+      <c r="J45" t="n">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>cattle</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hb 59</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>-21.67</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-6.88</v>
+      </c>
+      <c r="J46" t="n">
+        <v>17.51</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>cattle</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Hb 60</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-21.91</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-7.03</v>
+      </c>
+      <c r="J47" t="n">
+        <v>17.62</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>cattle</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hb 61</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>-21.28</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="J48" t="n">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>cattle</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hb 62</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>-21.62</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="J49" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ringed seal</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hb 28</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Salzwasser</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-12.54</v>
+      </c>
+      <c r="G50" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-8.130000000000001</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-8.880000000000001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>red deer</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hb 35</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>-22.03</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-11.36</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-8.390000000000001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>red deer</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hb 36</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>-22.09</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-14.08</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="J52" t="n">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>red deer</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hb 38</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>-22.74</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-13.03</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-7.67</v>
+      </c>
+      <c r="J53" t="n">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>red deer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Hb 39</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>-22.05</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-12.28</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-8.34</v>
+      </c>
+      <c r="J54" t="n">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>red deer</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>S 1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>-21.53</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-7.87</v>
+      </c>
+      <c r="J55" t="n">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>red deer</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>S 2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>-22.27</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-14.09</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-8.17</v>
+      </c>
+      <c r="J56" t="n">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>red deer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>S 3</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>-23.05</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-15.19</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-8.869999999999999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>red deer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>S 5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>-22.69</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-14.65</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-8.140000000000001</v>
+      </c>
+      <c r="J58" t="n">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>saddleback seal</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Hb 30</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>marine</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>molluscivorous</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Schleswig</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>-14</v>
-      </c>
-      <c r="G32" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="H32" t="n">
-        <v>-8.699999999999999</v>
-      </c>
-      <c r="I32" t="n">
-        <v>-6.33</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>-15.98</v>
+      </c>
+      <c r="G59" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-9.35</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-7.54</v>
+      </c>
+      <c r="J59" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sheep</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hb 73</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>-21.45</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-10.11</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>sheep</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hb 74</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>-21.82</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-12.06</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-8.890000000000001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>sheep</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hb 76</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>-21.49</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-10.09</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="J62" t="n">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>sheep</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Hb 77</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-9.49</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-5.32</v>
+      </c>
+      <c r="J63" t="n">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>sheep</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Hb 78</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>-22.29</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>sheep</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Hb 79</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>-20.95</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-10.65</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-5.14</v>
+      </c>
+      <c r="J65" t="n">
+        <v>17.92</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hb 23</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-11.22</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-8.73</v>
+      </c>
+      <c r="J66" t="n">
+        <v>17.21</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Hb 26</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>-15.98</v>
+      </c>
+      <c r="G67" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-6.23</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-10.18</v>
+      </c>
+      <c r="J67" t="n">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>common seal</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Hb 27</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>-13.41</v>
+      </c>
+      <c r="G68" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-9.710000000000001</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-8.970000000000001</v>
+      </c>
+      <c r="J68" t="n">
+        <v>15.25</v>
       </c>
     </row>
   </sheetData>

--- a/resultFile_1.xlsx
+++ b/resultFile_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,115 +479,104 @@
           <t>δ18O carb</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>δ18O phos</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aurochs</t>
+          <t>common bream</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hb 47</t>
+          <t>35 B2Op</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-20.51</v>
+        <v>-27.73</v>
       </c>
       <c r="G2" t="n">
-        <v>10.48</v>
+        <v>6.02</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.94</v>
+        <v>-0.64</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>17.25</v>
+        <v>-13.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aurochs</t>
+          <t>common bream</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hb 48</t>
+          <t>36 B3Pop</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-21.82</v>
+        <v>-25.07</v>
       </c>
       <c r="G3" t="n">
-        <v>4.03</v>
+        <v>6.17</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.16</v>
+        <v>-1.66</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.949999999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17.78</v>
+        <v>-11.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fallow deer</t>
+          <t>common bream</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S 6</t>
+          <t>37 B4Pop</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -596,82 +585,76 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-22.82</v>
+        <v>-22.41</v>
       </c>
       <c r="G4" t="n">
-        <v>9.43</v>
+        <v>5.38</v>
       </c>
       <c r="H4" t="n">
-        <v>-11.52</v>
+        <v>-1.6</v>
       </c>
       <c r="I4" t="n">
-        <v>-9.359999999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>17.28</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>squirrel</t>
+          <t>common bream</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hb 7</t>
+          <t>38 B5C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-21.27</v>
+        <v>-27.37</v>
       </c>
       <c r="G5" t="n">
-        <v>2.91</v>
+        <v>10.72</v>
       </c>
       <c r="H5" t="n">
-        <v>-14.64</v>
+        <v>-4.46</v>
       </c>
       <c r="I5" t="n">
-        <v>-8.029999999999999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>16.54</v>
+        <v>-15.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>moose</t>
+          <t>cod</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hb 46</t>
+          <t>1 D1V</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -680,40 +663,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-21.5</v>
+        <v>-16.06</v>
       </c>
       <c r="G6" t="n">
-        <v>4.86</v>
+        <v>13.68</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.36</v>
+        <v>-1.82</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.01</v>
-      </c>
-      <c r="J6" t="n">
-        <v>17.64</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>cod</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hb 1</t>
+          <t>3 D3V</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -722,40 +702,37 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-22.54</v>
+        <v>-16.21</v>
       </c>
       <c r="G7" t="n">
-        <v>6.17</v>
+        <v>15.89</v>
       </c>
       <c r="H7" t="n">
-        <v>-12.45</v>
+        <v>-1.3</v>
       </c>
       <c r="I7" t="n">
-        <v>-8.85</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15.84</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>cod</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hb 2</t>
+          <t>4 D4V</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,40 +741,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-21.2</v>
+        <v>-14.74</v>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>15.57</v>
       </c>
       <c r="H8" t="n">
-        <v>-10.8</v>
+        <v>-0.21</v>
       </c>
       <c r="I8" t="n">
-        <v>-8.220000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>17.04</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>cod</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hb 3</t>
+          <t>5 D5V</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -806,82 +780,76 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-21.67</v>
+        <v>-15.29</v>
       </c>
       <c r="G9" t="n">
-        <v>4.54</v>
+        <v>11.99</v>
       </c>
       <c r="H9" t="n">
-        <v>-9.76</v>
+        <v>-0.32</v>
       </c>
       <c r="I9" t="n">
-        <v>-6.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>17.26</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>cod</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hb 5</t>
+          <t>40 D2V</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-22.15</v>
+        <v>-15.64</v>
       </c>
       <c r="G10" t="n">
-        <v>4.02</v>
+        <v>12.24</v>
       </c>
       <c r="H10" t="n">
-        <v>-15.83</v>
+        <v>2.18</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.359999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16.47</v>
+        <v>-13.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>cod</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S 24</t>
+          <t>42 D4V</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -890,292 +858,271 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-22.38</v>
+        <v>-15.94</v>
       </c>
       <c r="G11" t="n">
-        <v>4.04</v>
+        <v>17.37</v>
       </c>
       <c r="H11" t="n">
-        <v>-11.3</v>
+        <v>-0.38</v>
       </c>
       <c r="I11" t="n">
-        <v>-7.43</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17.29</v>
+        <v>-3.99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>perch</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S 25</t>
+          <t>6 FB1C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-22.78</v>
+        <v>-15.88</v>
       </c>
       <c r="G12" t="n">
-        <v>5.32</v>
+        <v>12.23</v>
       </c>
       <c r="H12" t="n">
-        <v>-13.12</v>
+        <v>1.45</v>
       </c>
       <c r="I12" t="n">
-        <v>-10.04</v>
-      </c>
-      <c r="J12" t="n">
-        <v>16.67</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>perch</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S 26</t>
+          <t>7 FB2C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-22.39</v>
+        <v>-11.66</v>
       </c>
       <c r="G13" t="n">
-        <v>3.96</v>
+        <v>10.85</v>
       </c>
       <c r="H13" t="n">
-        <v>-13.59</v>
+        <v>3.53</v>
       </c>
       <c r="I13" t="n">
-        <v>-9.27</v>
-      </c>
-      <c r="J13" t="n">
-        <v>14.68</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>perch</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S 27</t>
+          <t>8 FB3C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-22.45</v>
+        <v>-15.72</v>
       </c>
       <c r="G14" t="n">
-        <v>3.89</v>
+        <v>15.28</v>
       </c>
       <c r="H14" t="n">
-        <v>-14.84</v>
+        <v>3.37</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.82</v>
-      </c>
-      <c r="J14" t="n">
-        <v>15.63</v>
+        <v>-11.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>European hare</t>
+          <t>perch</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S 28</t>
+          <t>9 FB4C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-23.4</v>
+        <v>-11.5</v>
       </c>
       <c r="G15" t="n">
-        <v>4.35</v>
+        <v>11.69</v>
       </c>
       <c r="H15" t="n">
-        <v>-15.14</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>-6.27</v>
-      </c>
-      <c r="J15" t="n">
-        <v>17.03</v>
+        <v>-13.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sea otter</t>
+          <t>perch</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hb 19</t>
+          <t>44 FB1C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>terrestrial, aquatic</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-19.17</v>
+        <v>-17.22</v>
       </c>
       <c r="G16" t="n">
-        <v>11.21</v>
+        <v>12.32</v>
       </c>
       <c r="H16" t="n">
-        <v>-14.81</v>
+        <v>-3.58</v>
       </c>
       <c r="I16" t="n">
-        <v>-9.460000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>15.6</v>
+        <v>-10.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sea otter</t>
+          <t>perch</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hb 20</t>
+          <t>45 FB2C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>terrestrial, aquatic</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-19.88</v>
+        <v>-13.01</v>
       </c>
       <c r="G17" t="n">
-        <v>13.81</v>
+        <v>9.02</v>
       </c>
       <c r="H17" t="n">
-        <v>-16.27</v>
+        <v>0.54</v>
       </c>
       <c r="I17" t="n">
-        <v>-9.91</v>
-      </c>
-      <c r="J17" t="n">
-        <v>14.92</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>European rabbit</t>
+          <t>perch</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S 29</t>
+          <t>46 FB3Op</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1184,40 +1131,37 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-22.33</v>
+        <v>-16.21</v>
       </c>
       <c r="G18" t="n">
-        <v>8.449999999999999</v>
+        <v>10.35</v>
       </c>
       <c r="H18" t="n">
-        <v>-11.77</v>
+        <v>-0.83</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.95</v>
-      </c>
-      <c r="J18" t="n">
-        <v>16.64</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>European rabbit</t>
+          <t>perch</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S 30</t>
+          <t>47 FB4Pop</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,40 +1170,37 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-21.91</v>
+        <v>-23.95</v>
       </c>
       <c r="G19" t="n">
-        <v>10.98</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>-10.47</v>
+        <v>-7.2</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.220000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>16.52</v>
+        <v>-9.35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>grey seal</t>
+          <t>perch</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S 17</t>
+          <t>48 FB5Pop</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1268,40 +1209,37 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-14.51</v>
+        <v>-13.45</v>
       </c>
       <c r="G20" t="n">
-        <v>12.93</v>
+        <v>11.3</v>
       </c>
       <c r="H20" t="n">
-        <v>-9.76</v>
+        <v>-0.65</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.859999999999999</v>
-      </c>
-      <c r="J20" t="n">
-        <v>16.87</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hb 83</t>
+          <t>10 H1C</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1310,40 +1248,37 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-22.15</v>
+        <v>-18.62</v>
       </c>
       <c r="G21" t="n">
-        <v>5.73</v>
+        <v>13.38</v>
       </c>
       <c r="H21" t="n">
-        <v>-11</v>
+        <v>-4.25</v>
       </c>
       <c r="I21" t="n">
-        <v>-7.87</v>
-      </c>
-      <c r="J21" t="n">
-        <v>16.85</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hb 84</t>
+          <t>11 H2C</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1352,40 +1287,37 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-22.54</v>
+        <v>-25.66</v>
       </c>
       <c r="G22" t="n">
-        <v>4.17</v>
+        <v>10.77</v>
       </c>
       <c r="H22" t="n">
-        <v>-11.47</v>
+        <v>-7.53</v>
       </c>
       <c r="I22" t="n">
-        <v>-8.09</v>
-      </c>
-      <c r="J22" t="n">
-        <v>16.03</v>
+        <v>-11.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hb 85</t>
+          <t>12 H3C</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1394,40 +1326,37 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-21.83</v>
+        <v>-24.66</v>
       </c>
       <c r="G23" t="n">
-        <v>6.74</v>
+        <v>10.25</v>
       </c>
       <c r="H23" t="n">
-        <v>-11.84</v>
+        <v>-7.2</v>
       </c>
       <c r="I23" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>17.05</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hb 86</t>
+          <t>13 H4C</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1436,40 +1365,37 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-21.86</v>
+        <v>-22.23</v>
       </c>
       <c r="G24" t="n">
-        <v>5.63</v>
+        <v>11.63</v>
       </c>
       <c r="H24" t="n">
-        <v>-10.86</v>
+        <v>-6.77</v>
       </c>
       <c r="I24" t="n">
-        <v>-6.88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>17.41</v>
+        <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hb 87</t>
+          <t>14 H5C</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1478,460 +1404,427 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-22.14</v>
+        <v>-16.32</v>
       </c>
       <c r="G25" t="n">
-        <v>4.95</v>
+        <v>14.43</v>
       </c>
       <c r="H25" t="n">
-        <v>-12.11</v>
+        <v>-3.28</v>
       </c>
       <c r="I25" t="n">
-        <v>-9.210000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>16.49</v>
+        <v>-6.51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hb 88</t>
+          <t>49 H1C</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-22.25</v>
+        <v>-22.4</v>
       </c>
       <c r="G26" t="n">
-        <v>4.91</v>
+        <v>11.52</v>
       </c>
       <c r="H26" t="n">
-        <v>-14.51</v>
+        <v>-6.23</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.029999999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>16.71</v>
+        <v>-12.49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hb 89</t>
+          <t>51 H3C</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-22</v>
+        <v>-22.38</v>
       </c>
       <c r="G27" t="n">
-        <v>4.98</v>
+        <v>5.4</v>
       </c>
       <c r="H27" t="n">
-        <v>-13.17</v>
+        <v>-6.89</v>
       </c>
       <c r="I27" t="n">
-        <v>-7.18</v>
-      </c>
-      <c r="J27" t="n">
-        <v>17.2</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hb 90</t>
+          <t>52 H4C</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-21.69</v>
+        <v>-20.16</v>
       </c>
       <c r="G28" t="n">
-        <v>6.39</v>
+        <v>9.65</v>
       </c>
       <c r="H28" t="n">
-        <v>-14.35</v>
+        <v>-3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>-6.93</v>
-      </c>
-      <c r="J28" t="n">
-        <v>17.44</v>
+        <v>-12.49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hb 91</t>
+          <t>53 H5De</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-21.36</v>
+        <v>-24.31</v>
       </c>
       <c r="G29" t="n">
-        <v>5.82</v>
+        <v>8.02</v>
       </c>
       <c r="H29" t="n">
-        <v>-12.98</v>
+        <v>-5.51</v>
       </c>
       <c r="I29" t="n">
-        <v>-7.23</v>
-      </c>
-      <c r="J29" t="n">
-        <v>18.53</v>
+        <v>-13.82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>garfish</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hb 92</t>
+          <t>54 HH1De</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-22.23</v>
+        <v>-13.47</v>
       </c>
       <c r="G30" t="n">
-        <v>6.01</v>
+        <v>11.52</v>
       </c>
       <c r="H30" t="n">
-        <v>-13.87</v>
+        <v>2.12</v>
       </c>
       <c r="I30" t="n">
-        <v>-8.01</v>
-      </c>
-      <c r="J30" t="n">
-        <v>15.77</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sperm whale</t>
+          <t>garfish</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hb 50</t>
+          <t>58 HH5De</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Salzwasser</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>molluscivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-19.34</v>
+        <v>-14.31</v>
       </c>
       <c r="G31" t="n">
-        <v>8.33</v>
+        <v>7.62</v>
       </c>
       <c r="H31" t="n">
-        <v>-14.48</v>
+        <v>-1.84</v>
       </c>
       <c r="I31" t="n">
-        <v>-5.75</v>
-      </c>
-      <c r="J31" t="n">
-        <v>19.59</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>haddock</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hb 40</t>
+          <t>59 SF1C</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-24</v>
+        <v>-15.95</v>
       </c>
       <c r="G32" t="n">
-        <v>5.38</v>
+        <v>13.29</v>
       </c>
       <c r="H32" t="n">
-        <v>-15.79</v>
+        <v>1.37</v>
       </c>
       <c r="I32" t="n">
-        <v>-10.06</v>
-      </c>
-      <c r="J32" t="n">
-        <v>16.57</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>haddock</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hb 41</t>
+          <t>60 SF2C</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-21.95</v>
+        <v>-15.93</v>
       </c>
       <c r="G33" t="n">
-        <v>4.42</v>
+        <v>12.91</v>
       </c>
       <c r="H33" t="n">
-        <v>-13.63</v>
+        <v>-0.03</v>
       </c>
       <c r="I33" t="n">
-        <v>-8.92</v>
-      </c>
-      <c r="J33" t="n">
-        <v>16.79</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>haddock</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hb 42</t>
+          <t>61 SF3C</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-22.67</v>
+        <v>-14.9</v>
       </c>
       <c r="G34" t="n">
-        <v>4.82</v>
+        <v>11.99</v>
       </c>
       <c r="H34" t="n">
-        <v>-15.01</v>
+        <v>4.1</v>
       </c>
       <c r="I34" t="n">
-        <v>-8.31</v>
-      </c>
-      <c r="J34" t="n">
-        <v>16.41</v>
+        <v>-11.61</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>haddock</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hb 43</t>
+          <t>63 SF5C</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-22.41</v>
+        <v>-16.09</v>
       </c>
       <c r="G35" t="n">
-        <v>3.7</v>
+        <v>14.98</v>
       </c>
       <c r="H35" t="n">
-        <v>-15.6</v>
+        <v>4.06</v>
       </c>
       <c r="I35" t="n">
-        <v>-7.51</v>
-      </c>
-      <c r="J35" t="n">
-        <v>16.91</v>
+        <v>-15.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>tench</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S 8</t>
+          <t>64 SLOp</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1940,40 +1833,37 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>-21.94</v>
+        <v>-24.79</v>
       </c>
       <c r="G36" t="n">
-        <v>4.58</v>
+        <v>6.34</v>
       </c>
       <c r="H36" t="n">
-        <v>-14.55</v>
+        <v>-3.23</v>
       </c>
       <c r="I36" t="n">
-        <v>-9.48</v>
-      </c>
-      <c r="J36" t="n">
-        <v>16.47</v>
+        <v>-14.49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>place</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S 9</t>
+          <t>65 SOC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>brackish, marine</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1982,40 +1872,37 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>-21.73</v>
+        <v>-14.9</v>
       </c>
       <c r="G37" t="n">
-        <v>3.07</v>
+        <v>10.7</v>
       </c>
       <c r="H37" t="n">
-        <v>-13.33</v>
+        <v>2.77</v>
       </c>
       <c r="I37" t="n">
-        <v>-9.630000000000001</v>
-      </c>
-      <c r="J37" t="n">
-        <v>16.4</v>
+        <v>-14.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>sturgeon</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S 11</t>
+          <t>66 ST1Rü</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2024,40 +1911,37 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>-20.07</v>
+        <v>-13.52</v>
       </c>
       <c r="G38" t="n">
-        <v>8.33</v>
+        <v>12.8</v>
       </c>
       <c r="H38" t="n">
-        <v>-11.89</v>
+        <v>3.29</v>
       </c>
       <c r="I38" t="n">
-        <v>-7.97</v>
-      </c>
-      <c r="J38" t="n">
-        <v>16.69</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>roe deer</t>
+          <t>sturgeon</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S 12</t>
+          <t>67 ST2Rü</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2066,166 +1950,154 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-22.78</v>
+        <v>-14.27</v>
       </c>
       <c r="G39" t="n">
-        <v>4.28</v>
+        <v>12.91</v>
       </c>
       <c r="H39" t="n">
-        <v>-14.53</v>
+        <v>3.73</v>
       </c>
       <c r="I39" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>16.65</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cattle</t>
+          <t>sturgeon</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hb 53</t>
+          <t>68 ST3Rü</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>-21.46</v>
+        <v>-13.73</v>
       </c>
       <c r="G40" t="n">
-        <v>4.39</v>
+        <v>13.52</v>
       </c>
       <c r="H40" t="n">
-        <v>-9.970000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="I40" t="n">
-        <v>-7.14</v>
-      </c>
-      <c r="J40" t="n">
-        <v>16.71</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cattle</t>
+          <t>sturgeon</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hb 54</t>
+          <t>69 ST4Rü</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-21.62</v>
+        <v>-14.93</v>
       </c>
       <c r="G41" t="n">
-        <v>4.89</v>
+        <v>12.89</v>
       </c>
       <c r="H41" t="n">
-        <v>-10.62</v>
+        <v>0.27</v>
       </c>
       <c r="I41" t="n">
-        <v>-6.84</v>
-      </c>
-      <c r="J41" t="n">
-        <v>16.88</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cattle</t>
+          <t>sturgeon</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hb 55</t>
+          <t>67 ST5Rü</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>-22.48</v>
+        <v>-13.72</v>
       </c>
       <c r="G42" t="n">
-        <v>6.69</v>
+        <v>13.18</v>
       </c>
       <c r="H42" t="n">
-        <v>-11.86</v>
+        <v>-0.91</v>
       </c>
       <c r="I42" t="n">
-        <v>-7.07</v>
-      </c>
-      <c r="J42" t="n">
-        <v>17.18</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cattle</t>
+          <t>sander</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hb 56</t>
+          <t>15 Z1C</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2234,40 +2106,37 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>-21.61</v>
+        <v>-22.67</v>
       </c>
       <c r="G43" t="n">
-        <v>5.18</v>
+        <v>9.67</v>
       </c>
       <c r="H43" t="n">
-        <v>-10.51</v>
+        <v>-7.93</v>
       </c>
       <c r="I43" t="n">
-        <v>-7.15</v>
-      </c>
-      <c r="J43" t="n">
-        <v>17.07</v>
+        <v>-10.22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cattle</t>
+          <t>sander</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hb 57</t>
+          <t>16 Z2C</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2276,40 +2145,37 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>-21.67</v>
+        <v>-19.96</v>
       </c>
       <c r="G44" t="n">
-        <v>5.53</v>
+        <v>10.29</v>
       </c>
       <c r="H44" t="n">
-        <v>-10.67</v>
+        <v>-6.67</v>
       </c>
       <c r="I44" t="n">
-        <v>-6.43</v>
-      </c>
-      <c r="J44" t="n">
-        <v>18.14</v>
+        <v>-10.41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cattle</t>
+          <t>sander</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hb 58</t>
+          <t>17 Z3C</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2318,40 +2184,37 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>-21.44</v>
+        <v>-20.99</v>
       </c>
       <c r="G45" t="n">
-        <v>4.88</v>
+        <v>11.48</v>
       </c>
       <c r="H45" t="n">
-        <v>-9.98</v>
+        <v>-6.46</v>
       </c>
       <c r="I45" t="n">
-        <v>-7.27</v>
-      </c>
-      <c r="J45" t="n">
-        <v>17.66</v>
+        <v>-14.55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cattle</t>
+          <t>sander</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hb 59</t>
+          <t>18 Z4C</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2360,40 +2223,37 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>-21.67</v>
+        <v>-22.94</v>
       </c>
       <c r="G46" t="n">
-        <v>4.98</v>
+        <v>10.58</v>
       </c>
       <c r="H46" t="n">
-        <v>-10.8</v>
+        <v>-6.43</v>
       </c>
       <c r="I46" t="n">
-        <v>-6.88</v>
-      </c>
-      <c r="J46" t="n">
-        <v>17.51</v>
+        <v>-13.94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cattle</t>
+          <t>sander</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hb 60</t>
+          <t>19 Z5C</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>freshwater, brackish</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>herbivorous</t>
+          <t>piscivorous</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2402,901 +2262,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>-21.91</v>
+        <v>-22.21</v>
       </c>
       <c r="G47" t="n">
-        <v>4.05</v>
+        <v>10.17</v>
       </c>
       <c r="H47" t="n">
-        <v>-9.9</v>
+        <v>-7.07</v>
       </c>
       <c r="I47" t="n">
-        <v>-7.03</v>
-      </c>
-      <c r="J47" t="n">
-        <v>17.62</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>cattle</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Hb 61</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>-21.28</v>
-      </c>
-      <c r="G48" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="I48" t="n">
-        <v>-7.44</v>
-      </c>
-      <c r="J48" t="n">
-        <v>17.13</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>cattle</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Hb 62</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>-21.62</v>
-      </c>
-      <c r="G49" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="H49" t="n">
-        <v>-11.2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>-7.37</v>
-      </c>
-      <c r="J49" t="n">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>ringed seal</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Hb 28</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Salzwasser</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>piscivorous</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>-12.54</v>
-      </c>
-      <c r="G50" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-8.130000000000001</v>
-      </c>
-      <c r="I50" t="n">
-        <v>-8.880000000000001</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>red deer</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Hb 35</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>-22.03</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-11.36</v>
-      </c>
-      <c r="I51" t="n">
-        <v>-8.390000000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>red deer</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Hb 36</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>-22.09</v>
-      </c>
-      <c r="G52" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="H52" t="n">
-        <v>-14.08</v>
-      </c>
-      <c r="I52" t="n">
-        <v>-7.37</v>
-      </c>
-      <c r="J52" t="n">
-        <v>16.71</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>red deer</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Hb 38</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>-22.74</v>
-      </c>
-      <c r="G53" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-13.03</v>
-      </c>
-      <c r="I53" t="n">
-        <v>-7.67</v>
-      </c>
-      <c r="J53" t="n">
-        <v>16.38</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>red deer</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Hb 39</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>-22.05</v>
-      </c>
-      <c r="G54" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H54" t="n">
-        <v>-12.28</v>
-      </c>
-      <c r="I54" t="n">
-        <v>-8.34</v>
-      </c>
-      <c r="J54" t="n">
-        <v>16.54</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>red deer</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>S 1</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Schleswig</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>-21.53</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="H55" t="n">
-        <v>-13.1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>-7.87</v>
-      </c>
-      <c r="J55" t="n">
-        <v>17.41</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>red deer</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>S 2</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Schleswig</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>-22.27</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-14.09</v>
-      </c>
-      <c r="I56" t="n">
-        <v>-8.17</v>
-      </c>
-      <c r="J56" t="n">
-        <v>17.03</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>red deer</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>S 3</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Schleswig</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>-23.05</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="H57" t="n">
-        <v>-15.19</v>
-      </c>
-      <c r="I57" t="n">
-        <v>-8.869999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>16.53</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>red deer</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>S 5</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Schleswig</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>-22.69</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="H58" t="n">
-        <v>-14.65</v>
-      </c>
-      <c r="I58" t="n">
-        <v>-8.140000000000001</v>
-      </c>
-      <c r="J58" t="n">
-        <v>17.32</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>saddleback seal</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Hb 30</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>marine</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>piscivorous</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>-15.98</v>
-      </c>
-      <c r="G59" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-9.35</v>
-      </c>
-      <c r="I59" t="n">
-        <v>-7.54</v>
-      </c>
-      <c r="J59" t="n">
-        <v>15.04</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>sheep</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Hb 73</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>-21.45</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="H60" t="n">
-        <v>-10.11</v>
-      </c>
-      <c r="I60" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>19.73</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>sheep</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Hb 74</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>-21.82</v>
-      </c>
-      <c r="G61" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-12.06</v>
-      </c>
-      <c r="I61" t="n">
-        <v>-8.890000000000001</v>
-      </c>
-      <c r="J61" t="n">
-        <v>16.68</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>sheep</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Hb 76</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>-21.49</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="H62" t="n">
-        <v>-10.09</v>
-      </c>
-      <c r="I62" t="n">
-        <v>-5.79</v>
-      </c>
-      <c r="J62" t="n">
-        <v>19.72</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>sheep</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Hb 77</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>-21.6</v>
-      </c>
-      <c r="G63" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-9.49</v>
-      </c>
-      <c r="I63" t="n">
-        <v>-5.32</v>
-      </c>
-      <c r="J63" t="n">
-        <v>19.64</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>sheep</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Hb 78</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>-22.29</v>
-      </c>
-      <c r="G64" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-11.3</v>
-      </c>
-      <c r="I64" t="n">
-        <v>-6.1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>18.32</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>sheep</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Hb 79</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>terrestrial</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>herbivorous</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>-20.95</v>
-      </c>
-      <c r="G65" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-10.65</v>
-      </c>
-      <c r="I65" t="n">
-        <v>-5.14</v>
-      </c>
-      <c r="J65" t="n">
-        <v>17.92</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>common seal</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Hb 23</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>freshwater, brackish, marine</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>piscivorous</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>-20.7</v>
-      </c>
-      <c r="G66" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>-11.22</v>
-      </c>
-      <c r="I66" t="n">
-        <v>-8.73</v>
-      </c>
-      <c r="J66" t="n">
-        <v>17.21</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>common seal</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Hb 26</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>freshwater, brackish, marine</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>piscivorous</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>-15.98</v>
-      </c>
-      <c r="G67" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-6.23</v>
-      </c>
-      <c r="I67" t="n">
-        <v>-10.18</v>
-      </c>
-      <c r="J67" t="n">
-        <v>15.58</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>common seal</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Hb 27</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>freshwater, brackish, marine</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>piscivorous</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Haithabu</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>-13.41</v>
-      </c>
-      <c r="G68" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="H68" t="n">
-        <v>-9.710000000000001</v>
-      </c>
-      <c r="I68" t="n">
-        <v>-8.970000000000001</v>
-      </c>
-      <c r="J68" t="n">
-        <v>15.25</v>
+        <v>-9.58</v>
       </c>
     </row>
   </sheetData>

--- a/resultFile_1.xlsx
+++ b/resultFile_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>common bream</t>
+          <t>carrion crow</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>35 B2Op</t>
+          <t>S 107</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -507,32 +507,32 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-27.73</v>
+        <v>-19.73</v>
       </c>
       <c r="G2" t="n">
-        <v>6.02</v>
+        <v>10.7</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.64</v>
+        <v>-13.71</v>
       </c>
       <c r="I2" t="n">
-        <v>-13.04</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>common bream</t>
+          <t>carrion crow</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>36 B3Pop</t>
+          <t>S 108</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -546,32 +546,32 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-25.07</v>
+        <v>-19.23</v>
       </c>
       <c r="G3" t="n">
-        <v>6.17</v>
+        <v>11.76</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.66</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-11.68</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>common bream</t>
+          <t>carrion crow</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>37 B4Pop</t>
+          <t>S 109</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -585,232 +585,232 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-22.41</v>
+        <v>-20.87</v>
       </c>
       <c r="G4" t="n">
-        <v>5.38</v>
+        <v>9.57</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.6</v>
+        <v>-6.5</v>
       </c>
       <c r="I4" t="n">
-        <v>-12.01</v>
+        <v>-12.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>common bream</t>
+          <t>greater scaup</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>38 B5C</t>
+          <t>Hb 140</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, aquatic, marine</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-27.37</v>
+        <v>-20.71</v>
       </c>
       <c r="G5" t="n">
-        <v>10.72</v>
+        <v>8.91</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.46</v>
+        <v>-15.43</v>
       </c>
       <c r="I5" t="n">
-        <v>-15.07</v>
+        <v>-12.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cod</t>
+          <t>greater scaup</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1 D1V</t>
+          <t>S 51</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial, aquatic, marine</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-16.06</v>
+        <v>-25.42</v>
       </c>
       <c r="G6" t="n">
-        <v>13.68</v>
+        <v>6.01</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.82</v>
+        <v>-14.53</v>
       </c>
       <c r="I6" t="n">
-        <v>-13.2</v>
+        <v>-16.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cod</t>
+          <t>greater scaup</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3 D3V</t>
+          <t>S 52</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial, aquatic, marine</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-16.21</v>
+        <v>-14.78</v>
       </c>
       <c r="G7" t="n">
-        <v>15.89</v>
+        <v>9.56</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.3</v>
+        <v>-7.88</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.76</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cod</t>
+          <t>greater scaup</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4 D4V</t>
+          <t>S 54</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial, aquatic, marine</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-14.74</v>
+        <v>-21.25</v>
       </c>
       <c r="G8" t="n">
-        <v>15.57</v>
+        <v>7.98</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.21</v>
+        <v>-12.07</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.9</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cod</t>
+          <t>black grouse</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5 D5V</t>
+          <t>S 97</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-15.29</v>
+        <v>-21.05</v>
       </c>
       <c r="G9" t="n">
-        <v>11.99</v>
+        <v>4.63</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.32</v>
+        <v>-12.27</v>
       </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>-12.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cod</t>
+          <t>black grouse</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>40 D2V</t>
+          <t>113 BH1H</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -819,37 +819,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-15.64</v>
+        <v>-21.19</v>
       </c>
       <c r="G10" t="n">
-        <v>12.24</v>
+        <v>5.76</v>
       </c>
       <c r="H10" t="n">
-        <v>2.18</v>
+        <v>-10.97</v>
       </c>
       <c r="I10" t="n">
-        <v>-13.38</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cod</t>
+          <t>black grouse</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>42 D4V</t>
+          <t>114 BH2H</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -858,76 +858,76 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-15.94</v>
+        <v>-20.75</v>
       </c>
       <c r="G11" t="n">
-        <v>17.37</v>
+        <v>6.34</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.38</v>
+        <v>-11.47</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.99</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>perch</t>
+          <t>black grouse</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6 FB1C</t>
+          <t>117 BH5Cc</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-15.88</v>
+        <v>-21.24</v>
       </c>
       <c r="G12" t="n">
-        <v>12.23</v>
+        <v>4.46</v>
       </c>
       <c r="H12" t="n">
-        <v>1.45</v>
+        <v>-11.86</v>
       </c>
       <c r="I12" t="n">
-        <v>-7.1</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>perch</t>
+          <t>white-fronted goose</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7 FB2C</t>
+          <t>Hb 151</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, aquatic, freshwater</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -936,37 +936,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-11.66</v>
+        <v>-22.56</v>
       </c>
       <c r="G13" t="n">
-        <v>10.85</v>
+        <v>8.94</v>
       </c>
       <c r="H13" t="n">
-        <v>3.53</v>
+        <v>-13.41</v>
       </c>
       <c r="I13" t="n">
-        <v>-6.73</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>perch</t>
+          <t>white-fronted goose</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8 FB3C</t>
+          <t>Hb 152</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, aquatic, freshwater</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -975,32 +975,32 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-15.72</v>
+        <v>-21</v>
       </c>
       <c r="G14" t="n">
-        <v>15.28</v>
+        <v>5.54</v>
       </c>
       <c r="H14" t="n">
-        <v>3.37</v>
+        <v>-12.64</v>
       </c>
       <c r="I14" t="n">
-        <v>-11.03</v>
+        <v>-11.65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>perch</t>
+          <t>shelduck</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9 FB4C</t>
+          <t>Hb 148</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, aquatic, brackish, marine, rarely freshwater</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1014,32 +1014,32 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-11.5</v>
+        <v>-20.75</v>
       </c>
       <c r="G15" t="n">
-        <v>11.69</v>
+        <v>11.68</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>-13.1</v>
       </c>
       <c r="I15" t="n">
-        <v>-13.1</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>perch</t>
+          <t>shelduck</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>44 FB1C</t>
+          <t>Hb 149</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, aquatic, brackish, marine, rarely freshwater</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1049,36 +1049,36 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-17.22</v>
+        <v>-17.01</v>
       </c>
       <c r="G16" t="n">
-        <v>12.32</v>
+        <v>7.61</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.58</v>
+        <v>-9.31</v>
       </c>
       <c r="I16" t="n">
-        <v>-10.96</v>
+        <v>-13.62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>perch</t>
+          <t>shelduck</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>45 FB2C</t>
+          <t>Hb 150</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, aquatic, brackish, marine, rarely freshwater</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1088,36 +1088,36 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-13.01</v>
+        <v>-19.21</v>
       </c>
       <c r="G17" t="n">
-        <v>9.02</v>
+        <v>11.13</v>
       </c>
       <c r="H17" t="n">
-        <v>0.54</v>
+        <v>-13.16</v>
       </c>
       <c r="I17" t="n">
-        <v>-9.140000000000001</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>perch</t>
+          <t>common eider</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>46 FB3Op</t>
+          <t>Hb 146</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, marine</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1127,36 +1127,36 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-16.21</v>
+        <v>-16.57</v>
       </c>
       <c r="G18" t="n">
-        <v>10.35</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.83</v>
+        <v>-12.48</v>
       </c>
       <c r="I18" t="n">
-        <v>-8.029999999999999</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>perch</t>
+          <t>common eider</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>47 FB4Pop</t>
+          <t>Hb 147</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, marine</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1166,36 +1166,36 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-23.95</v>
+        <v>-17.1</v>
       </c>
       <c r="G19" t="n">
-        <v>9.710000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.2</v>
+        <v>-11.23</v>
       </c>
       <c r="I19" t="n">
-        <v>-9.35</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>perch</t>
+          <t>common eider</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>48 FB5Pop</t>
+          <t>79 EE3Tt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, marine</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1205,36 +1205,36 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-13.45</v>
+        <v>-17.08</v>
       </c>
       <c r="G20" t="n">
-        <v>11.3</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.65</v>
+        <v>-6.64</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.73</v>
+        <v>-8.380000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>common merganser</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10 H1C</t>
+          <t>S 76</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1244,36 +1244,36 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-18.62</v>
+        <v>-25.5</v>
       </c>
       <c r="G21" t="n">
-        <v>13.38</v>
+        <v>9.51</v>
       </c>
       <c r="H21" t="n">
-        <v>-4.25</v>
+        <v>-12.86</v>
       </c>
       <c r="I21" t="n">
-        <v>-9.01</v>
+        <v>-8.949999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>common merganser</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11 H2C</t>
+          <t>S 77</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1283,36 +1283,36 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-25.66</v>
+        <v>-12.67</v>
       </c>
       <c r="G22" t="n">
-        <v>10.77</v>
+        <v>13.03</v>
       </c>
       <c r="H22" t="n">
-        <v>-7.53</v>
+        <v>-7.32</v>
       </c>
       <c r="I22" t="n">
-        <v>-11.54</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>common merganser</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12 H3C</t>
+          <t>S 78</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1322,36 +1322,36 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-24.66</v>
+        <v>-13.49</v>
       </c>
       <c r="G23" t="n">
-        <v>10.25</v>
+        <v>13.5</v>
       </c>
       <c r="H23" t="n">
-        <v>-7.2</v>
+        <v>-6.37</v>
       </c>
       <c r="I23" t="n">
-        <v>-9.640000000000001</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>common merganser</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13 H4C</t>
+          <t>S 79</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1361,36 +1361,36 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-22.23</v>
+        <v>-20.75</v>
       </c>
       <c r="G24" t="n">
-        <v>11.63</v>
+        <v>12.05</v>
       </c>
       <c r="H24" t="n">
-        <v>-6.77</v>
+        <v>-11.64</v>
       </c>
       <c r="I24" t="n">
-        <v>-9.359999999999999</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>common merganser</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>14 H5C</t>
+          <t>S 80</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1400,36 +1400,36 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-16.32</v>
+        <v>-20.2</v>
       </c>
       <c r="G25" t="n">
-        <v>14.43</v>
+        <v>7.05</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.28</v>
+        <v>-10.65</v>
       </c>
       <c r="I25" t="n">
-        <v>-6.51</v>
+        <v>-10.35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>common merganser</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>49 H1C</t>
+          <t>120 GS3Tt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1443,32 +1443,32 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-22.4</v>
+        <v>-17.09</v>
       </c>
       <c r="G26" t="n">
-        <v>11.52</v>
+        <v>15.21</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.23</v>
+        <v>-9.140000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>-12.49</v>
+        <v>-8.220000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>common merganser</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>51 H3C</t>
+          <t>121 GS4U</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial, freshwater, brackish, marine</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1482,115 +1482,115 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-22.38</v>
+        <v>-14.98</v>
       </c>
       <c r="G27" t="n">
-        <v>5.4</v>
+        <v>13.9</v>
       </c>
       <c r="H27" t="n">
-        <v>-6.89</v>
+        <v>-8.58</v>
       </c>
       <c r="I27" t="n">
-        <v>-12.8</v>
+        <v>-8.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>52 H4C</t>
+          <t>Hb 167</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-20.16</v>
+        <v>-21.89</v>
       </c>
       <c r="G28" t="n">
-        <v>9.65</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.2</v>
+        <v>-15.19</v>
       </c>
       <c r="I28" t="n">
-        <v>-12.49</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>53 H5De</t>
+          <t>Hb 171</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-24.31</v>
+        <v>-19.95</v>
       </c>
       <c r="G29" t="n">
-        <v>8.02</v>
+        <v>8.67</v>
       </c>
       <c r="H29" t="n">
-        <v>-5.51</v>
+        <v>-13.9</v>
       </c>
       <c r="I29" t="n">
-        <v>-13.82</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>garfish</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>54 HH1De</t>
+          <t>S 86</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1599,37 +1599,37 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-13.47</v>
+        <v>-19.23</v>
       </c>
       <c r="G30" t="n">
-        <v>11.52</v>
+        <v>11.86</v>
       </c>
       <c r="H30" t="n">
-        <v>2.12</v>
+        <v>-7.87</v>
       </c>
       <c r="I30" t="n">
-        <v>-5.07</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>garfish</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>58 HH5De</t>
+          <t>S 87</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1638,32 +1638,32 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-14.31</v>
+        <v>-20.07</v>
       </c>
       <c r="G31" t="n">
-        <v>7.62</v>
+        <v>10.08</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.84</v>
+        <v>-3.17</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.45</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>haddock</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>59 SF1C</t>
+          <t>S 88</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1677,32 +1677,32 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-15.95</v>
+        <v>-20.6</v>
       </c>
       <c r="G32" t="n">
-        <v>13.29</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1.37</v>
+        <v>-11.02</v>
       </c>
       <c r="I32" t="n">
-        <v>-4.86</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>haddock</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>60 SF2C</t>
+          <t>S 89</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1716,32 +1716,32 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-15.93</v>
+        <v>-20.38</v>
       </c>
       <c r="G33" t="n">
-        <v>12.91</v>
+        <v>6.52</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.03</v>
+        <v>-9.529999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>-10.23</v>
+        <v>-6.82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>haddock</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>61 SF3C</t>
+          <t>S 90</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1755,32 +1755,32 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-14.9</v>
+        <v>-19.16</v>
       </c>
       <c r="G34" t="n">
-        <v>11.99</v>
+        <v>9.26</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>-7.74</v>
       </c>
       <c r="I34" t="n">
-        <v>-11.61</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>haddock</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>63 SF5C</t>
+          <t>122 HB1F</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1794,37 +1794,37 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-16.09</v>
+        <v>-20.78</v>
       </c>
       <c r="G35" t="n">
-        <v>14.98</v>
+        <v>11.29</v>
       </c>
       <c r="H35" t="n">
-        <v>4.06</v>
+        <v>-14.18</v>
       </c>
       <c r="I35" t="n">
-        <v>-15.06</v>
+        <v>-8.24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>tench</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>64 SLOp</t>
+          <t>123 HB2F</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>carnivorous</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1833,32 +1833,32 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>-24.79</v>
+        <v>-19.91</v>
       </c>
       <c r="G36" t="n">
-        <v>6.34</v>
+        <v>9.18</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.23</v>
+        <v>-11.4</v>
       </c>
       <c r="I36" t="n">
-        <v>-14.49</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>65 SOC</t>
+          <t>124 HB3F</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1872,32 +1872,32 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>-14.9</v>
+        <v>-20.27</v>
       </c>
       <c r="G37" t="n">
-        <v>10.7</v>
+        <v>6.6</v>
       </c>
       <c r="H37" t="n">
-        <v>2.77</v>
+        <v>-13.26</v>
       </c>
       <c r="I37" t="n">
-        <v>-14.74</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sturgeon</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>66 ST1Rü</t>
+          <t>125 HB4F</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1911,32 +1911,32 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>-13.52</v>
+        <v>-19.08</v>
       </c>
       <c r="G38" t="n">
-        <v>12.8</v>
+        <v>8.58</v>
       </c>
       <c r="H38" t="n">
-        <v>3.29</v>
+        <v>-12.48</v>
       </c>
       <c r="I38" t="n">
-        <v>-12.39</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sturgeon</t>
+          <t>goshawk</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>67 ST2Rü</t>
+          <t>126 HB5F</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1950,154 +1950,154 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-14.27</v>
+        <v>-19.98</v>
       </c>
       <c r="G39" t="n">
-        <v>12.91</v>
+        <v>10.18</v>
       </c>
       <c r="H39" t="n">
-        <v>3.73</v>
+        <v>-11.58</v>
       </c>
       <c r="I39" t="n">
-        <v>-7.58</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sturgeon</t>
+          <t>domestic goose</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>68 ST3Rü</t>
+          <t>Hb 108</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>-13.73</v>
+        <v>-21.92</v>
       </c>
       <c r="G40" t="n">
-        <v>13.52</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8</v>
+        <v>-13.88</v>
       </c>
       <c r="I40" t="n">
-        <v>-6.27</v>
+        <v>-8.119999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sturgeon</t>
+          <t>domestic goose</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>69 ST4Rü</t>
+          <t>Hb 109</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-14.93</v>
+        <v>-22.24</v>
       </c>
       <c r="G41" t="n">
-        <v>12.89</v>
+        <v>7.88</v>
       </c>
       <c r="H41" t="n">
-        <v>0.27</v>
+        <v>-13.83</v>
       </c>
       <c r="I41" t="n">
-        <v>-5.33</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sturgeon</t>
+          <t>domestic goose</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>67 ST5Rü</t>
+          <t>Hb 110</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>freshwater, brackish, marine</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>carnivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Schleswig</t>
+          <t>Haithabu</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>-13.72</v>
+        <v>-23.06</v>
       </c>
       <c r="G42" t="n">
-        <v>13.18</v>
+        <v>7.54</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.91</v>
+        <v>-15.85</v>
       </c>
       <c r="I42" t="n">
-        <v>-6.41</v>
+        <v>-10.36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sander</t>
+          <t>domestic goose</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15 Z1C</t>
+          <t>Hb 111</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2106,37 +2106,37 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>-22.67</v>
+        <v>-23.07</v>
       </c>
       <c r="G43" t="n">
-        <v>9.67</v>
+        <v>10.28</v>
       </c>
       <c r="H43" t="n">
-        <v>-7.93</v>
+        <v>-14.43</v>
       </c>
       <c r="I43" t="n">
-        <v>-10.22</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sander</t>
+          <t>domestic goose</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16 Z2C</t>
+          <t>Hb 112</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2145,133 +2145,5242 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>-19.96</v>
+        <v>-21.93</v>
       </c>
       <c r="G44" t="n">
-        <v>10.29</v>
+        <v>6.83</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.67</v>
+        <v>-11.77</v>
       </c>
       <c r="I44" t="n">
-        <v>-10.41</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sander</t>
+          <t>domestic goose</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>17 Z3C</t>
+          <t>S 31</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>-20.99</v>
+        <v>-22.05</v>
       </c>
       <c r="G45" t="n">
-        <v>11.48</v>
+        <v>6.51</v>
       </c>
       <c r="H45" t="n">
-        <v>-6.46</v>
+        <v>-13.76</v>
       </c>
       <c r="I45" t="n">
-        <v>-14.55</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sander</t>
+          <t>domestic goose</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18 Z4C</t>
+          <t>S 32</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>piscivorous</t>
+          <t>herbivorous</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Haithabu</t>
+          <t>Schleswig</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>-22.94</v>
+        <v>-22.58</v>
       </c>
       <c r="G46" t="n">
-        <v>10.58</v>
+        <v>9.4</v>
       </c>
       <c r="H46" t="n">
-        <v>-6.43</v>
+        <v>-13.95</v>
       </c>
       <c r="I46" t="n">
-        <v>-13.94</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sander</t>
+          <t>domestic goose</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>19 Z5C</t>
+          <t>S 33</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>freshwater, brackish</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-23.2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-13.83</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-6.55</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>domestic goose</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>S 34</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>-21.95</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-14.11</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-7.68</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>domestic goose</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>S 35</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>-22.79</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-14.47</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-6.84</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>domestic chicken</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hb 113</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-20.54</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-12.91</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-8.130000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>domestic chicken</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hb 114</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>-20.41</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-14.51</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-7.47</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>domestic chicken</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hb 115</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>-20.21</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-14.27</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-7.92</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>domestic chicken</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hb 117</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>-21.49</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-13.34</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-6.97</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>domestic chicken</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>S 36</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>-20.84</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-14.38</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-11.22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>domestic chicken</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>S 37</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>-20.99</v>
+      </c>
+      <c r="G55" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-11.82</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-9.289999999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>domestic chicken</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>S 38</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>-20.46</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-12.45</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-6.58</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>domestic chicken</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>S 39</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>-21.67</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-13.22</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-10.18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>domestic chicken</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>S 40</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>-21.15</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-11.07</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-7.15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mute swan</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Hb 159</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>-11.41</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-6.48</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mute swan</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hb 160</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>-20.86</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-7.13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mute swan</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hb 161</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>-10.61</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-10.33</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>common raven</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>80 KRA1H</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>piscivorous, Aasfresser</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>-16.12</v>
+      </c>
+      <c r="G62" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-5.32</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-6.51</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>common raven</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>81 KRA2H</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>piscivorous, Aasfresser</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>-21.67</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-11.42</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-5.62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>common raven</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>82 KRA3H</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>piscivorous, Aasfresser</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>-20.83</v>
+      </c>
+      <c r="G64" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-6.21</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>common raven</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>83 KRA4H</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>piscivorous, Aasfresser</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>-20.67</v>
+      </c>
+      <c r="G65" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-12.37</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-6.16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>common raven</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hb 183</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>piscivorous, Aasfresser</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-13.26</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-11.15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>common raven</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Hb 184</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>piscivorous, Aasfresser</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>-21.07</v>
+      </c>
+      <c r="G67" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-6.65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>common raven</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Hb 185</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>piscivorous, Aasfresser</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>-19.66</v>
+      </c>
+      <c r="G68" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-12.45</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-11.54</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>cormorant</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Hb 118</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>piscivorous</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Haithabu</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>-22.21</v>
-      </c>
-      <c r="G47" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="H47" t="n">
-        <v>-7.07</v>
-      </c>
-      <c r="I47" t="n">
-        <v>-9.58</v>
+      <c r="F69" t="n">
+        <v>-17.45</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-10.62</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-7.76</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>cormorant</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Hb 119</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="G70" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-8.76</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-5.25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>cormorant</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Hb 120</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>-10.25</v>
+      </c>
+      <c r="G71" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-3.43</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-11.38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>cormorant</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Hb 121</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>-12.85</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-7.87</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-7.37</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>cormorant</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hb 122</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>-12.54</v>
+      </c>
+      <c r="G73" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-8.15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>cormorant</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>86 K2H</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>-14.85</v>
+      </c>
+      <c r="G74" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-7.63</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>cormorant</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>87 K3F</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>-14.29</v>
+      </c>
+      <c r="G75" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-6.37</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-6.51</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>cormorant</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>88 K4Cc</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>-17</v>
+      </c>
+      <c r="G76" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-8.59</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-8.42</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>cormorant</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>89 K5U</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>-14.34</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-9.26</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-6.97</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>common crane</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>S 101</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>-20.92</v>
+      </c>
+      <c r="G78" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-10.56</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-7.33</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>common crane</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>S 102</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G79" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-11.59</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>common crane</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>127 KN1Tt</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>-20.07</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-10.64</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-5.21</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>common crane</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>128 KN2Tt</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>-21.22</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-14.08</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-5.57</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>common crane</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>129 KN3Tt</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>-24.17</v>
+      </c>
+      <c r="G82" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-7.49</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>common crane</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>130 KN4U</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>-19.05</v>
+      </c>
+      <c r="G83" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-11.78</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-6.16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>common crane</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>131 KN5Cr</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-11.09</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-6.42</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>red-breasted merganser</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>S 71</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>terrestrial, coast</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="G85" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-7.78</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-12.45</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>red-breasted merganser</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>S 72</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>terrestrial, coast</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>-20.47</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-11.17</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-11.09</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>red-breasted merganser</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>S 73</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>terrestrial, coast</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>-20.67</v>
+      </c>
+      <c r="G87" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-11.92</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>red-breasted merganser</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>S 74</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>terrestrial, coast</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>-13.53</v>
+      </c>
+      <c r="G88" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-8.84</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>red-breasted merganser</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>S 75</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>terrestrial, coast</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>-14.93</v>
+      </c>
+      <c r="G89" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-9.109999999999999</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-7.25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>European widgeon</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Hb 126</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>-22.96</v>
+      </c>
+      <c r="G90" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-15.46</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-13.56</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>European widgeon</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Hb 127</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>-23.03</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-13.52</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-11.92</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Hb 136</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>-25.46</v>
+      </c>
+      <c r="G92" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-18.49</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-11.49</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Hb 138</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>-21.03</v>
+      </c>
+      <c r="G93" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-13.73</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-10.83</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Hb 139</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>-21.36</v>
+      </c>
+      <c r="G94" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-13.06</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-8.609999999999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>90 RE1H</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>-22.79</v>
+      </c>
+      <c r="G95" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-12.19</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-10.13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>91 RE2Tt</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>-10.77</v>
+      </c>
+      <c r="G96" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-12.97</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>92 RE3St</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>-22.61</v>
+      </c>
+      <c r="G97" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-10.95</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-11.49</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>132 RE1H</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>-19.31</v>
+      </c>
+      <c r="G98" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-12.32</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-10.24</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>133 RE2H</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>-24.12</v>
+      </c>
+      <c r="G99" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-16.81</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-13.05</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>134 RE3H</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>-25.76</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-10.84</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>135 RE4H</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>-30.51</v>
+      </c>
+      <c r="G101" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-19.36</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-12.51</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>tufted duck</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>136 RE5H</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>-20.29</v>
+      </c>
+      <c r="G102" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-12.75</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-8.289999999999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>common goldeneye</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Hb 142</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>terrestrial, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>-23.79</v>
+      </c>
+      <c r="G103" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-16.13</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-7.98</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>common goldeneye</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>S 61</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>terrestrial, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>-22.34</v>
+      </c>
+      <c r="G104" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-15.7</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>common goldeneye</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>S 62</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>terrestrial, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>-19.06</v>
+      </c>
+      <c r="G105" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-7.25</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>common goldeneye</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>S 63</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>terrestrial, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>-22.69</v>
+      </c>
+      <c r="G106" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-12.86</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-7.88</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>common goldeneye</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>S 65</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>terrestrial, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>-18.91</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-12.93</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-10.36</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>common goldeneye</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>137 SC1H</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>terrestrial, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>-18.31</v>
+      </c>
+      <c r="G108" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-10.75</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-8.58</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>common goldeneye</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>138 SC2H</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>terrestrial, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>-21.61</v>
+      </c>
+      <c r="G109" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-12.06</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-9.19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>common goldeneye</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>139 SC3H</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>terrestrial, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>-26.65</v>
+      </c>
+      <c r="G110" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-16.53</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-10.11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>common goldeneye</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>140 SC4H</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>terrestrial, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>-21.96</v>
+      </c>
+      <c r="G111" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-13.53</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-11.31</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>common goldeneye</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>141 SC5H</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>terrestrial, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>-18.81</v>
+      </c>
+      <c r="G112" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-10.18</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-10.27</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Hb 162</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>-19.87</v>
+      </c>
+      <c r="G113" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-23.54</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-8.029999999999999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Hb 163</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>-19.91</v>
+      </c>
+      <c r="G114" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-13.73</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-10.07</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Hb 164</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>-24.93</v>
+      </c>
+      <c r="G115" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-13.74</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-9.390000000000001</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Hb 166</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>-17.53</v>
+      </c>
+      <c r="G116" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-9.56</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-8.710000000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>S 81</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>-20.18</v>
+      </c>
+      <c r="G117" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-9.68</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-5.26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>S 82</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>-16.55</v>
+      </c>
+      <c r="G118" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-8.74</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>S 83</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>-12.41</v>
+      </c>
+      <c r="G119" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-10.28</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>S 84</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>-20.47</v>
+      </c>
+      <c r="G120" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-8.890000000000001</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-8.449999999999999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>S 85</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>-15.56</v>
+      </c>
+      <c r="G121" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-7.06</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-7.37</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>93 SA1U</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>-19.88</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-11.41</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-11.65</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>94 SA2U</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="G123" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-9.210000000000001</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-8.93</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>95 SA3U</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>-19.54</v>
+      </c>
+      <c r="G124" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-11.24</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-9.73</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>96 SA4U</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-5.94</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>97 SA5H</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>-16.11</v>
+      </c>
+      <c r="G126" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>142 SA1H</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>-22.37</v>
+      </c>
+      <c r="G127" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-6.55</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>144 SA3Tt</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>-12.45</v>
+      </c>
+      <c r="G128" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-6.39</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>white-tailed eagle</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>146 SA5Cmc</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>terrestrial, coast, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>-13.24</v>
+      </c>
+      <c r="G129" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-6.64</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-6.12</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Hb 153</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>-17.69</v>
+      </c>
+      <c r="G130" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-8.869999999999999</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-9.619999999999999</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Hb 154</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>-21.9</v>
+      </c>
+      <c r="G131" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-13.89</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-10.15</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Hb 155</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-13.78</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-9.859999999999999</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Hb 156</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>-19</v>
+      </c>
+      <c r="G133" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-6.82</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-9.359999999999999</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>S 41</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>-19.68</v>
+      </c>
+      <c r="G134" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-8.32</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-9.57</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>S 42</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>-19.39</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-7.6</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-12.21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>S 43</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>-23.62</v>
+      </c>
+      <c r="G136" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-12.53</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-11.75</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>S 44</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>-21.55</v>
+      </c>
+      <c r="G137" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-12.88</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-11.03</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>S 45</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>-16.01</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-8.73</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-11.63</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>98 SW1H</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>-20.08</v>
+      </c>
+      <c r="G139" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-10.58</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-10.95</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>99 SW2Cc</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>-18.32</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-7.41</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>100 SW3R</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>-16.69</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-8.44</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-6.92</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>147 SW1R</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>-20.57</v>
+      </c>
+      <c r="G142" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-11.02</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-13.29</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>148 SW2R</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>-21.14</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-9.17</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-10.01</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>149 SW3H</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>-17.94</v>
+      </c>
+      <c r="G144" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-11.51</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>150 SW4F</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>-20.73</v>
+      </c>
+      <c r="G145" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-12.19</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-11.35</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>whooper swan</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>151 SW5Tt</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>herbivorous</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>-21.01</v>
+      </c>
+      <c r="G146" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-12.49</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-12.84</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>pintail</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Hb 123</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, freshwater</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>-12.45</v>
+      </c>
+      <c r="G147" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-6.73</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-6.72</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>pintail</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Hb 124</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, freshwater</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>-19.36</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-12.73</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-9.06</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>pintail</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Hb 125</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, freshwater</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>-24.32</v>
+      </c>
+      <c r="G149" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-18.06</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-10.18</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>pintail</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>S 56</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, freshwater</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>-20.94</v>
+      </c>
+      <c r="G150" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-13.38</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-8.550000000000001</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>pintail</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>S 57</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, freshwater</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>-23.52</v>
+      </c>
+      <c r="G151" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-14.08</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-12.52</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>pintail</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>S 58</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, freshwater</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>-12.49</v>
+      </c>
+      <c r="G152" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Hb 131</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>-24.11</v>
+      </c>
+      <c r="G153" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-16.44</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-10.54</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Hb 133</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>-21.26</v>
+      </c>
+      <c r="G154" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-12.29</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-7.81</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Hb 134</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>-21.29</v>
+      </c>
+      <c r="G155" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-12.45</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-8.83</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>S 46</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>-20.6</v>
+      </c>
+      <c r="G156" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-12.85</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-6.91</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>S 47</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>-21.47</v>
+      </c>
+      <c r="G157" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-13.32</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-7.43</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>S 48</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>-23.33</v>
+      </c>
+      <c r="G158" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-15.09</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-8.19</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>S 49</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>-20.43</v>
+      </c>
+      <c r="G159" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-11.44</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-8.539999999999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>S 50</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>-23.6</v>
+      </c>
+      <c r="G160" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-14.85</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-9.880000000000001</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>104 SE2H</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>-23.13</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-12.89</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-9.57</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>105 SE3U</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>-20.35</v>
+      </c>
+      <c r="G162" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-9.710000000000001</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-7.82</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>152 SE1H</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>-16.84</v>
+      </c>
+      <c r="G163" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-10.45</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-6.71</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>153 SE2H</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>-12.71</v>
+      </c>
+      <c r="G164" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-6.56</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-8.550000000000001</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>154 SE3H</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>-21.54</v>
+      </c>
+      <c r="G165" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-13.23</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-7.69</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>155 SE4H</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>-19.63</v>
+      </c>
+      <c r="G166" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-13.77</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-11.72</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>mallard</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>156 SE5H</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>-23.47</v>
+      </c>
+      <c r="G167" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-9.630000000000001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>guillemot</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Hb 178</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="G168" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-11.68</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-8.68</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>guillemot</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Hb 179</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>-17.1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-10.43</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-7.21</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>guillemot</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Hb 180</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>-15.83</v>
+      </c>
+      <c r="G170" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-11.06</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-5.07</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>guillemot</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Hb 182</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="G171" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-9.470000000000001</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-4.1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>guillemot</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>109 TL2St</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>-17.11</v>
+      </c>
+      <c r="G172" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="H172" t="n">
+        <v>-6.57</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-7.26</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>guillemot</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>110 TL3St</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Haithabu</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>-16.25</v>
+      </c>
+      <c r="G173" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-5.05</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>peregrine falcon</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>S 91</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>-20.29</v>
+      </c>
+      <c r="G174" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-6.16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>peregrine falcon</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>S 92</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>-20.48</v>
+      </c>
+      <c r="G175" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="H175" t="n">
+        <v>-8.99</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-8.380000000000001</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>peregrine falcon</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>S 93</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>-19.01</v>
+      </c>
+      <c r="G176" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-8.42</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-7.31</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>peregrine falcon</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>S 94</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>carnivorous</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>-19.2</v>
+      </c>
+      <c r="G177" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-8.84</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-10.88</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>smew</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>S 66</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>terrestrial, aquatic, freshwater, brackish, marine</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>piscivorous</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Schleswig</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>-18.26</v>
+      </c>
+      <c r="G178" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-10.98</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-11.57</v>
       </c>
     </row>
   </sheetData>
